--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_annual.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_annual.xlsx
@@ -501,13 +501,13 @@
         <v>0.04823062108356169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03193151932883262</v>
+        <v>0.03824976438307783</v>
       </c>
       <c r="H2" t="n">
-        <v>-33.79409468206961</v>
+        <v>-20.6940248254145</v>
       </c>
       <c r="I2" t="n">
-        <v>60.54891418857305</v>
+        <v>-31.42369657858217</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.03835660347027155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02985143619364095</v>
+        <v>0.04483339027015782</v>
       </c>
       <c r="H3" t="n">
-        <v>-22.17393227537095</v>
+        <v>16.88571514134753</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.4527679884705402</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.466671778038638</v>
+        <v>-0.4585870876927937</v>
       </c>
       <c r="H4" t="n">
-        <v>3.070842003443119</v>
+        <v>-1.285227615563234</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.4788349786360374</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4642591795795077</v>
+        <v>-0.4388679390381338</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.044013012175703</v>
+        <v>8.346725151898845</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2336316508151194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2501046128701352</v>
+        <v>0.2396970430948253</v>
       </c>
       <c r="H6" t="n">
-        <v>7.050826374570023</v>
+        <v>2.59613466691876</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2205746116218639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2554277749314777</v>
+        <v>0.2448388215796232</v>
       </c>
       <c r="H7" t="n">
-        <v>15.80107658508016</v>
+        <v>11.00045457604885</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1668064381739801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1677151325951666</v>
+        <v>0.1760996157766723</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5447598013205679</v>
+        <v>5.571234362668513</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1720113297547816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1771225533688858</v>
+        <v>0.1703927428324036</v>
       </c>
       <c r="H9" t="n">
-        <v>2.971445904982388</v>
+        <v>-0.9409769255812588</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.00473948184538576</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01242363180914204</v>
+        <v>-0.003724392634685596</v>
       </c>
       <c r="H10" t="n">
-        <v>162.1305917911127</v>
+        <v>21.41772547748926</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0146552956725634</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01944903803889109</v>
+        <v>-0.004627496247610453</v>
       </c>
       <c r="H11" t="n">
-        <v>32.70996691866267</v>
+        <v>68.42440882121728</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1367222749794492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1383090235041676</v>
+        <v>0.1400234185610019</v>
       </c>
       <c r="H12" t="n">
-        <v>1.160563284188265</v>
+        <v>2.414488481887021</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.1246375821478671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1461170287234287</v>
+        <v>0.1401382182428771</v>
       </c>
       <c r="H13" t="n">
-        <v>17.23352315201275</v>
+        <v>12.4365667464733</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2473334756068372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2619955335170912</v>
+        <v>0.2667501122088802</v>
       </c>
       <c r="H14" t="n">
-        <v>5.928052348870443</v>
+        <v>7.850387641383325</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2526770099516101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2648967724175375</v>
+        <v>0.2650433889716831</v>
       </c>
       <c r="H15" t="n">
-        <v>4.836119624918636</v>
+        <v>4.894144909519592</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1534692709482307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1476545030118455</v>
+        <v>0.1452364219830415</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.788880927405132</v>
+        <v>-5.364493435279531</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1510151984036966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1436929078673775</v>
+        <v>0.144694201943753</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.848710999766395</v>
+        <v>-4.185669076198677</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.01637490625494815</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01113512168024901</v>
+        <v>-0.01136787339824208</v>
       </c>
       <c r="H18" t="n">
-        <v>-31.99886761559804</v>
+        <v>30.57747494092096</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.0008420639130941139</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01376306667436991</v>
+        <v>-0.009750159221883478</v>
       </c>
       <c r="H19" t="n">
-        <v>1534.444424034078</v>
+        <v>-1057.888263618506</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1386621728908525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1488861683811933</v>
+        <v>0.1494298754285556</v>
       </c>
       <c r="H20" t="n">
-        <v>7.373312618134577</v>
+        <v>7.765421753616149</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1430944751915809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1413732446998587</v>
+        <v>0.138699445637133</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.202862996225204</v>
+        <v>-3.071418060385385</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.186217385980056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1845014832149473</v>
+        <v>0.1674259144532954</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.9214514295096293</v>
+        <v>-10.09114773460152</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.179460504226912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1600942123464763</v>
+        <v>0.1789295658707026</v>
       </c>
       <c r="H23" t="n">
-        <v>-10.79139500017716</v>
+        <v>-0.2958524821361691</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0943972626856821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.09533946778585375</v>
+        <v>-0.1018184128685597</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9981275657419684</v>
+        <v>-7.861615868659301</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.09960845456872909</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.08892575723460391</v>
+        <v>-0.1070734714531105</v>
       </c>
       <c r="H25" t="n">
-        <v>-10.72468936535321</v>
+        <v>-7.494360711349659</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2301404426212312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2382594192798397</v>
+        <v>0.2383632479720952</v>
       </c>
       <c r="H26" t="n">
-        <v>3.527835684217764</v>
+        <v>3.572951045547969</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2325722382365865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2400557437522402</v>
+        <v>0.2283790264084297</v>
       </c>
       <c r="H27" t="n">
-        <v>3.217712299797812</v>
+        <v>-1.802971781993691</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.05880326267593137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0642019135471233</v>
+        <v>0.0712192754139809</v>
       </c>
       <c r="H28" t="n">
-        <v>9.180869607430212</v>
+        <v>21.11449632731264</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.07058452141033789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07515730150377213</v>
+        <v>0.08205040369027952</v>
       </c>
       <c r="H29" t="n">
-        <v>6.478445985134229</v>
+        <v>16.24418789111791</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_annual.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04823062108356169</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03824976438307783</v>
+        <v>0.04745578092654933</v>
       </c>
       <c r="H2" t="n">
-        <v>-20.6940248254145</v>
+        <v>-1.606531576008338</v>
       </c>
       <c r="I2" t="n">
-        <v>-31.42369657858217</v>
+        <v>13.57457575347232</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.03835660347027155</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04483339027015782</v>
+        <v>0.03722383007507604</v>
       </c>
       <c r="H3" t="n">
-        <v>16.88571514134753</v>
+        <v>-2.953268258159161</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.4527679884705402</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4585870876927937</v>
+        <v>-0.4600504391005563</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.285227615563234</v>
+        <v>-1.608428779299619</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.4788349786360374</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4388679390381338</v>
+        <v>-0.4553137631116126</v>
       </c>
       <c r="H5" t="n">
-        <v>8.346725151898845</v>
+        <v>4.912175712690217</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.2336316508151194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2396970430948253</v>
+        <v>0.2425080272062985</v>
       </c>
       <c r="H6" t="n">
-        <v>2.59613466691876</v>
+        <v>3.799303887213148</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.2205746116218639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2448388215796232</v>
+        <v>0.2547089450619264</v>
       </c>
       <c r="H7" t="n">
-        <v>11.00045457604885</v>
+        <v>15.47518691705995</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.1668064381739801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1760996157766723</v>
+        <v>0.1707807670296438</v>
       </c>
       <c r="H8" t="n">
-        <v>5.571234362668513</v>
+        <v>2.382599196512085</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.1720113297547816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1703927428324036</v>
+        <v>0.16294769692268</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.9409769255812588</v>
+        <v>-5.269206885978187</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.00473948184538576</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.003724392634685596</v>
+        <v>-0.01452701250123707</v>
       </c>
       <c r="H10" t="n">
-        <v>21.41772547748926</v>
+        <v>-206.5105632882675</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.0146552956725634</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.004627496247610453</v>
+        <v>-0.01951024782623787</v>
       </c>
       <c r="H11" t="n">
-        <v>68.42440882121728</v>
+        <v>-33.12763019011324</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.1367222749794492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1400234185610019</v>
+        <v>0.1301882571772433</v>
       </c>
       <c r="H12" t="n">
-        <v>2.414488481887021</v>
+        <v>-4.779044090063612</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.1246375821478671</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1401382182428771</v>
+        <v>0.1316668645941095</v>
       </c>
       <c r="H13" t="n">
-        <v>12.4365667464733</v>
+        <v>5.639777605684797</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>0.2473334756068372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2667501122088802</v>
+        <v>0.2575602000003243</v>
       </c>
       <c r="H14" t="n">
-        <v>7.850387641383325</v>
+        <v>4.134791850717202</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.2526770099516101</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2650433889716831</v>
+        <v>0.2612642532234014</v>
       </c>
       <c r="H15" t="n">
-        <v>4.894144909519592</v>
+        <v>3.398505971491379</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1534692709482307</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1452364219830415</v>
+        <v>0.1402298406700088</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.364493435279531</v>
+        <v>-8.626762997191749</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1510151984036966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.144694201943753</v>
+        <v>0.1363232666592981</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.185669076198677</v>
+        <v>-9.728776904377376</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.01637490625494815</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01136787339824208</v>
+        <v>-0.008031533145252916</v>
       </c>
       <c r="H18" t="n">
-        <v>30.57747494092096</v>
+        <v>50.95218854870722</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.0008420639130941139</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.009750159221883478</v>
+        <v>0.003655291200755492</v>
       </c>
       <c r="H19" t="n">
-        <v>-1057.888263618506</v>
+        <v>534.0871451579419</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1386621728908525</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1494298754285556</v>
+        <v>0.158929440395021</v>
       </c>
       <c r="H20" t="n">
-        <v>7.765421753616149</v>
+        <v>14.61629158236386</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1430944751915809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.138699445637133</v>
+        <v>0.1513624081333621</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.071418060385385</v>
+        <v>5.777953992082335</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.186217385980056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1674259144532954</v>
+        <v>0.1822023985173604</v>
       </c>
       <c r="H22" t="n">
-        <v>-10.09114773460152</v>
+        <v>-2.156075514412821</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.179460504226912</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1789295658707026</v>
+        <v>0.1728799314658284</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2958524821361691</v>
+        <v>-3.666864076545257</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>-0.0943972626856821</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1018184128685597</v>
+        <v>-0.09403355025180332</v>
       </c>
       <c r="H24" t="n">
-        <v>-7.861615868659301</v>
+        <v>0.3852997677378087</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>-0.09960845456872909</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1070734714531105</v>
+        <v>-0.09494194923094661</v>
       </c>
       <c r="H25" t="n">
-        <v>-7.494360711349659</v>
+        <v>4.684848648628144</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.2301404426212312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2383632479720952</v>
+        <v>0.2323174711249414</v>
       </c>
       <c r="H26" t="n">
-        <v>3.572951045547969</v>
+        <v>0.9459565119952299</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.2325722382365865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2283790264084297</v>
+        <v>0.2397303704804443</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.802971781993691</v>
+        <v>3.077810274404344</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.05880326267593137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0712192754139809</v>
+        <v>0.06298725223967681</v>
       </c>
       <c r="H28" t="n">
-        <v>21.11449632731264</v>
+        <v>7.115233701918354</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,14 +1394,14 @@
         <v>0.07058452141033789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08205040369027952</v>
+        <v>0.06969247728541238</v>
       </c>
       <c r="H29" t="n">
-        <v>16.24418789111791</v>
+        <v>-1.263795669506175</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>